--- a/data/archives/9.xlsx
+++ b/data/archives/9.xlsx
@@ -379,10 +379,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -393,10 +393,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
@@ -421,10 +421,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -435,10 +435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C6" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -449,10 +449,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -528,43 +528,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: EHC_101; </t>
+POL 254: OLD; GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 468: OLD; </t>
+LAW 258: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: OLD; POL 254: OLD; ECON 254: EHC_101, EHC_102, EHC_201, NB_T1; SOC 456: EHC_101; ENGL 152: OLD; HIST 152: OLD, NB_T1, NB_T2; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 452: OLD; COMS 152: OLD; </t>
+SOC 454: OLD; ECON 356: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 366: OLD; SOC 458: OLD; </t>
+SOC 456: OLD; ECON 360: OLD; GEOG 152: OLD; ENGL 454: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 354: OLD; </t>
+CAT 256: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 364: OLD; ENGL 454: EHC_102; GEOG 352: EHC_101; </t>
+SOC 152: OLD; </t>
         </is>
       </c>
     </row>
@@ -575,34 +569,40 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 360: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 470: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: EHC_101, EHC_102, EHC_201, NB_T1, NB_T2; CHIN 102: OLD; </t>
+SOC 456: OLD; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 354: EHC_102; GEOG 356: OLD; CSM 184: OLD, EHC_101; RS 154: OLD, NB_T1, NB_T4, NB_T5; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; GEOG 356: NB_T3; CSM 184: OLD, EHC_101; </t>
+HIST 256: NB_T2; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: EHC_101; SOC 454: OLD; GEOG 358: EHC_201; </t>
+ECON 364: NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: EHC_102; SOC 456: OLD; </t>
+GLAK 262: OLD; ECON 354: OLD; MATH 154: OLD; </t>
         </is>
       </c>
     </row>
@@ -616,37 +616,37 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 360: OLD; </t>
+SOC 452: EHC_101; COMS 152: OLD; ENGL 468: NB_T1; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 254: OLD, EHC_101, EHC_102, EHC_201; ENGL 152: EHC_201, EHC_EXT_A; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; </t>
+SOC 458: OLD; ECON 366: OLD; ENGL 456: EHC_101; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: EHC_101; </t>
+SOWK 260: OLD; GEOG 352: EHC_101; CHIN 102: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 356: OLD; GEOG 152: OLD; RS 154: OLD, EHC_201, NB_T1, NB_T2; </t>
+GEOG 256: OLD; GEOG 358: EHC_101; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; GEOG 354: OLD; SOC 152: OLD; </t>
+FREN 262: OLD; </t>
         </is>
       </c>
     </row>
@@ -720,40 +720,34 @@
 PERIOD 1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 152: OLD; </t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 152: OLD; </t>
+GLAK 262: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 260: OLD; LAW 258: EHC_201; </t>
+ENGL 468: NB_T1; SOWK 260: EHC_101; RS 154: OLD, EHC_201, EHC_101, EHC_102; ECON 356: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CHIN 102: EHC_101, EHC_102; GEOG 360: OLD; </t>
+HIST 256: OLD; GEOG 256: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 468: EHC_102; </t>
+GEOG 352: OLD; ECON 354: OLD; SOC 452: OLD; </t>
         </is>
       </c>
     </row>
@@ -764,34 +758,46 @@
 PERIOD 2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 456: EHC_101; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 256: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; GEOG 152: OLD; SOC 152: OLD; </t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: OLD, EHC_101, EHC_102, EHC_201; </t>
+GEOG 358: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 152: OLD; ECON 354: EHC_101; </t>
+LAW 258: OLD; SOC 454: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 356: NB_T2; </t>
+ECON 360: OLD; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-COMS 152: OLD, EHC_101; HIST 152: OLD, EHC_102, EHC_201; GEOG 352: NB_T5; </t>
+ECON 254: OLD, EHC_101, EHC_102, EHC_201; CSM 184: EHC_102, EHC_201, EHC_101; ECON 364: OLD; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; SOC 152: OLD; ECON 356: EHC_101; ECON 254: OLD, EHC_101, EHC_102, EHC_201; </t>
+ENGL 458: OLD, EHC_101, EHC_102, EHC_201; CHIN 102: EHC_101, EHC_102; GEOG 356: EHC_102; SOC 456: OLD; </t>
         </is>
       </c>
     </row>
@@ -805,37 +811,37 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, EHC_101, EHC_102, EHC_201; ECON 364: NB_T1, NB_T2; SOC 454: OLD; POL 254: OLD; </t>
+POL 254: EHC_101; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 358: OLD; GLAK 262: OLD; GEOG 256: OLD; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 360: EHC_102; SOC 456: NB_T1; ENGL 470: OLD; </t>
+ENGL 470: EHC_101; COMS 152: OLD, EHC_101; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 366: OLD; GEOG 354: OLD; </t>
+FREN 262: EHC_101; HIST 152: OLD, NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: EHC_101; SOC 458: OLD; </t>
+ENGL 454: NB_T1; SOC 456: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: EHC_102, EHC_201, NB_T3; FREN 262: OLD; ENGL 454: EHC_101; ENGL 456: OLD; </t>
+GEOG 360: OLD; SOC 458: OLD; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; GEOG 354: EHC_101; ECON 366: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -912,43 +918,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: EHC_101; </t>
+POL 254: OLD; GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 468: OLD; </t>
+LAW 258: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: OLD; POL 254: OLD; ECON 254: EHC_101, EHC_102, EHC_201, NB_T1; SOC 456: EHC_101; ENGL 152: OLD; HIST 152: OLD, NB_T1, NB_T2; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 452: OLD; COMS 152: OLD; </t>
+SOC 454: OLD; ECON 356: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 366: OLD; SOC 458: OLD; </t>
+SOC 456: OLD; ECON 360: OLD; GEOG 152: OLD; ENGL 454: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 354: OLD; </t>
+CAT 256: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 364: OLD; ENGL 454: EHC_102; GEOG 352: EHC_101; </t>
+SOC 152: OLD; </t>
         </is>
       </c>
     </row>
@@ -959,34 +959,40 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 360: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 470: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: EHC_101, EHC_102, EHC_201, NB_T1, NB_T2; CHIN 102: OLD; </t>
+SOC 456: OLD; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 354: EHC_102; GEOG 356: OLD; CSM 184: OLD, EHC_101; RS 154: OLD, NB_T1, NB_T4, NB_T5; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; GEOG 356: NB_T3; CSM 184: OLD, EHC_101; </t>
+HIST 256: NB_T2; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: EHC_101; SOC 454: OLD; GEOG 358: EHC_201; </t>
+ECON 364: NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: EHC_102; SOC 456: OLD; </t>
+GLAK 262: OLD; ECON 354: OLD; MATH 154: OLD; </t>
         </is>
       </c>
     </row>
@@ -1000,37 +1006,37 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 360: OLD; </t>
+SOC 452: EHC_101; COMS 152: OLD; ENGL 468: NB_T1; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 254: OLD, EHC_101, EHC_102, EHC_201; ENGL 152: EHC_201, EHC_EXT_A; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; </t>
+SOC 458: OLD; ECON 366: OLD; ENGL 456: EHC_101; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: EHC_101; </t>
+SOWK 260: OLD; GEOG 352: EHC_101; CHIN 102: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 356: OLD; GEOG 152: OLD; RS 154: OLD, EHC_201, NB_T1, NB_T2; </t>
+GEOG 256: OLD; GEOG 358: EHC_101; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; GEOG 354: OLD; SOC 152: OLD; </t>
+FREN 262: OLD; </t>
         </is>
       </c>
     </row>
@@ -1107,37 +1113,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: OLD; SOC 458: OLD; ECON 254: OLD, NB_T1, NB_T5; GEOG 256: OLD; </t>
+GEOG 358: EHC_101; MATH 154: OLD; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 352: NB_T1; GEOG 354: OLD; SOWK 260: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 354: EHC_101; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 152: OLD; </t>
+COMS 152: EHC_101, EHC_102; POL 254: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: OLD; SOC 152: OLD; </t>
+GEOG 360: OLD; SOC 152: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 364: OLD; </t>
+ECON 356: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 358: EHC_101; CAT 256: OLD, NB_T2, NB_T1, NB_T5; HIST 256: OLD; </t>
+GEOG 256: OLD; </t>
         </is>
       </c>
     </row>
@@ -1148,28 +1154,40 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 468: EHC_101; SOC 454: OLD; COMS 152: OLD, EHC_101; GLAK 262: OLD; </t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 356: EHC_102; </t>
+CHIN 102: OLD; GEOG 152: OLD; SOC 456: OLD; </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 364: OLD; ENGL 454: OLD; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 256: EHC_101; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; ENGL 470: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 360: OLD; ENGL 458: OLD, EHC_101, NB_T5, EHC_201; SOC 456: OLD; RS 154: OLD, NB_T1, EHC_101, EHC_201; </t>
+ECON 360: NB_T1; RS 154: OLD, EHC_101, EHC_201, EHC_102; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 360: OLD; CSM 184: OLD, EHC_101; </t>
+CSM 184: OLD, EHC_101; SOC 454: OLD; </t>
         </is>
       </c>
     </row>
@@ -1180,40 +1198,40 @@
 PERIOD 3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FREN 262: OLD; ENGL 456: EHC_102; </t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 366: OLD; SOC 456: OLD; CHIN 102: OLD; </t>
+HIST 152: OLD, NB_T4, NB_T2; ENGL 468: OLD; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; </t>
+ECON 354: NB_T1; CAT 256: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 356: OLD; GEOG 352: EHC_101; ENGL 454: OLD; SOWK 260: OLD; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 152: OLD; MATH 154: OLD; POL 254: OLD; </t>
+ENGL 152: EHC_101, EHC_102; SOC 458: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: OLD; HIST 152: OLD, NB_T5, EHC_101; </t>
+GEOG 356: NB_T1; ECON 366: EHC_101; LAW 258: OLD; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: OLD; LAW 258: OLD; </t>
+ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; GLAK 262: OLD; SOC 452: OLD; </t>
         </is>
       </c>
     </row>
@@ -1290,37 +1308,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: OLD; SOC 458: OLD; ECON 254: OLD, NB_T1, NB_T5; GEOG 256: OLD; </t>
+ENGL 152: OLD; GEOG 256: OLD; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; GEOG 354: OLD; ECON 356: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 354: EHC_101; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 152: OLD; </t>
+COMS 152: OLD, EHC_101; FREN 262: OLD; ENGL 456: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: OLD; SOC 152: OLD; </t>
+SOWK 260: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 364: OLD; </t>
+SOC 452: OLD; MATH 154: OLD; POL 254: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 358: EHC_101; CAT 256: OLD, NB_T2, NB_T1, NB_T5; HIST 256: OLD; </t>
+ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
     </row>
@@ -1331,28 +1349,34 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 468: EHC_101; SOC 454: OLD; COMS 152: OLD, EHC_101; GLAK 262: OLD; </t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 356: EHC_102; </t>
+SOC 458: OLD; GEOG 360: EHC_101; ENGL 454: NB_T1; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 184: OLD, NB_T4; SOC 152: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 360: OLD; ENGL 458: OLD, EHC_101, NB_T5, EHC_201; SOC 456: OLD; RS 154: OLD, NB_T1, EHC_101, EHC_201; </t>
+SOC 456: EHC_101; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ECON 364: OLD; HIST 256: EHC_101; ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; LAW 258: OLD; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 360: OLD; CSM 184: OLD, EHC_101; </t>
+GEOG 352: OLD; </t>
         </is>
       </c>
     </row>
@@ -1363,40 +1387,34 @@
 PERIOD 3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 152: EHC_101; RS 154: OLD, EHC_101, EHC_102, EHC_201; ENGL 470: OLD; </t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 366: OLD; SOC 456: OLD; CHIN 102: OLD; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-FREN 262: OLD; </t>
+ECON 354: EHC_101; CAT 256: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; GLAK 262: OLD; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 356: OLD; GEOG 352: EHC_101; ENGL 454: OLD; SOWK 260: OLD; </t>
+GEOG 358: OLD; ECON 366: OLD; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 152: OLD; MATH 154: OLD; POL 254: OLD; </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 354: OLD; HIST 152: OLD, NB_T5, EHC_101; </t>
+GEOG 356: OLD; ECON 360: OLD; HIST 152: OLD, NB_T2, NB_T5; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: OLD; LAW 258: OLD; </t>
+CHIN 102: OLD; ENGL 468: NB_T1; </t>
         </is>
       </c>
     </row>
@@ -1470,40 +1488,40 @@
 PERIOD 1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 152: OLD; GEOG 256: OLD; </t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 152: OLD; </t>
+SOC 454: OLD; GEOG 354: OLD; ECON 356: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 260: OLD; LAW 258: EHC_201; </t>
+COMS 152: OLD, EHC_101; FREN 262: OLD; ENGL 456: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CHIN 102: EHC_101, EHC_102; GEOG 360: OLD; </t>
+SOWK 260: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+SOC 452: OLD; MATH 154: OLD; POL 254: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 468: EHC_102; </t>
+ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
     </row>
@@ -1514,34 +1532,34 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CAT 256: OLD, EHC_101, EHC_102, EHC_201; </t>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; GEOG 360: EHC_101; ENGL 454: NB_T1; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 152: OLD; ECON 354: EHC_101; </t>
+CSM 184: OLD, NB_T4; SOC 152: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 356: NB_T2; </t>
+SOC 456: EHC_101; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-COMS 152: OLD, EHC_101; HIST 152: OLD, EHC_102, EHC_201; GEOG 352: NB_T5; </t>
+SOC 456: OLD; ECON 364: OLD; HIST 256: EHC_101; ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; LAW 258: OLD; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; SOC 152: OLD; ECON 356: EHC_101; ECON 254: OLD, EHC_101, EHC_102, EHC_201; </t>
+GEOG 352: OLD; </t>
         </is>
       </c>
     </row>
@@ -1555,37 +1573,31 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, EHC_101, EHC_102, EHC_201; ECON 364: NB_T1, NB_T2; SOC 454: OLD; POL 254: OLD; </t>
+GEOG 152: EHC_101; RS 154: OLD, EHC_101, EHC_102, EHC_201; ENGL 470: OLD; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 358: OLD; GLAK 262: OLD; GEOG 256: OLD; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 360: EHC_102; SOC 456: NB_T1; ENGL 470: OLD; </t>
+ECON 354: EHC_101; CAT 256: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; GLAK 262: OLD; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 366: OLD; GEOG 354: OLD; </t>
+GEOG 358: OLD; ECON 366: OLD; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: EHC_101; SOC 458: OLD; </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CSM 184: EHC_102, EHC_201, NB_T3; FREN 262: OLD; ENGL 454: EHC_101; ENGL 456: OLD; </t>
+GEOG 356: OLD; ECON 360: OLD; HIST 152: OLD, NB_T2, NB_T5; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 102: OLD; ENGL 468: NB_T1; </t>
         </is>
       </c>
     </row>

--- a/data/archives/9.xlsx
+++ b/data/archives/9.xlsx
@@ -1,19 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Chromosome 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Chromosome 2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Chromosome 3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Chromosome 4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Chromosome 5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Chromosome 6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chromosome 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chromosome 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chromosome 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chromosome 4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,15 +48,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -351,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -393,10 +459,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +473,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -421,42 +487,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-Chromosome 5</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>56</v>
-      </c>
-      <c r="C6" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-Chromosome 6</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>53</v>
-      </c>
-      <c r="C7" t="n">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -528,37 +566,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: OLD; GEOG 360: OLD; </t>
+ENGL 458: OLD, EHC_101, EHC_102, EHC_201; ECON 354: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; </t>
+COMS 152: OLD; SOC 454: EHC_101; ENGL 468: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; ECON 356: OLD; </t>
+SOWK 260: EHC_102; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 366: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; ECON 360: OLD; GEOG 152: OLD; ENGL 454: OLD; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CAT 256: OLD, EHC_101, EHC_102, EHC_201; </t>
+CSM 184: OLD, EHC_101; GLAK 262: OLD; ECON 364: EHC_201, EHC_EXT_A; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; </t>
+HIST 256: EHC_201; </t>
         </is>
       </c>
     </row>
@@ -569,40 +607,46 @@
 PERIOD 2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+RS 154: OLD, NB_T3, NB_T1, NB_T5; FREN 262: OLD; LAW 258: EHC_101; </t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: OLD; </t>
+GEOG 354: EHC_102; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; </t>
+CAT 256: OLD, NB_T2, NB_T4, NB_T1; POL 254: OLD; ECON 356: EHC_102; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: EHC_102; GEOG 356: OLD; CSM 184: OLD, EHC_101; RS 154: OLD, NB_T1, NB_T4, NB_T5; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
+GEOG 152: OLD; SOC 458: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: NB_T2; </t>
+ENGL 456: EHC_101; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 364: NB_T1, NB_T2; </t>
+SOC 452: OLD; ENGL 454: OLD; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; ECON 354: OLD; MATH 154: OLD; </t>
+MATH 154: OLD; SOC 456: EHC_101; GEOG 356: OLD; GEOG 360: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -616,42 +660,36 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: EHC_101; COMS 152: OLD; ENGL 468: NB_T1; </t>
+HIST 152: OLD, NB_T3, NB_T4; ECON 360: OLD; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 254: OLD, EHC_101, EHC_102, EHC_201; ENGL 152: EHC_201, EHC_EXT_A; </t>
+SOC 456: OLD; ENGL 470: EHC_101; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 458: OLD; ECON 366: OLD; ENGL 456: EHC_101; </t>
+GEOG 256: OLD; GEOG 352: NB_T1; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; GEOG 352: EHC_101; CHIN 102: OLD; </t>
+CHIN 102: EHC_101, EHC_102; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; GEOG 358: EHC_101; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-FREN 262: OLD; </t>
+ENGL 152: EHC_101, EHC_102; SOC 152: OLD; ECON 254: OLD, NB_T4, NB_T1; GEOG 358: OLD; </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -723,31 +761,31 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 152: OLD; </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GLAK 262: OLD; </t>
+CHIN 102: OLD; ECON 354: OLD; SOC 456: OLD; ENGL 454: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 468: NB_T1; SOWK 260: EHC_101; RS 154: OLD, EHC_201, EHC_101, EHC_102; ECON 356: OLD; </t>
+HIST 152: OLD, EHC_101, EHC_201; SOC 454: OLD; ENGL 456: OLD; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 256: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: OLD; GEOG 256: OLD; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 352: OLD; ECON 354: OLD; SOC 452: OLD; </t>
+ECON 360: OLD; </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 184: OLD, EHC_102; RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
     </row>
@@ -761,43 +799,43 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: EHC_101; </t>
+LAW 258: OLD; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; GEOG 152: OLD; SOC 152: OLD; </t>
+POL 254: OLD; COMS 152: OLD, EHC_101; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 358: OLD; </t>
+ENGL 468: NB_T1; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; SOC 454: OLD; </t>
+FREN 262: EHC_101; SOWK 260: OLD; GEOG 152: OLD; ECON 366: OLD; GEOG 352: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 360: OLD; </t>
+ENGL 152: EHC_101, EHC_102; MATH 154: OLD; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 254: OLD, EHC_101, EHC_102, EHC_201; CSM 184: EHC_102, EHC_201, EHC_101; ECON 364: OLD; </t>
+GEOG 360: OLD; SOC 456: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 458: OLD, EHC_101, EHC_102, EHC_201; CHIN 102: EHC_101, EHC_102; GEOG 356: EHC_102; SOC 456: OLD; </t>
+ECON 254: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; GLAK 262: OLD; </t>
         </is>
       </c>
     </row>
@@ -811,42 +849,36 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: EHC_101; </t>
+GEOG 354: EHC_101; GEOG 356: OLD; SOC 458: OLD; ENGL 470: EHC_101; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: EHC_101; COMS 152: OLD, EHC_101; </t>
+ECON 364: OLD; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 256: OLD, EHC_101, EHC_102, EHC_201; SOC 452: OLD; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: EHC_101; HIST 152: OLD, NB_T1, NB_T2; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 454: NB_T1; SOC 456: OLD; </t>
+ECON 356: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 360: OLD; SOC 458: OLD; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-MATH 154: OLD; GEOG 354: EHC_101; ECON 366: EHC_101; </t>
+GEOG 256: OLD; SOC 152: OLD; GEOG 358: EHC_201; </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -918,37 +950,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: OLD; GEOG 360: OLD; </t>
+ENGL 458: OLD, EHC_101, EHC_102, EHC_201; ECON 354: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; </t>
+COMS 152: OLD; SOC 454: EHC_101; ENGL 468: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; ECON 356: OLD; </t>
+SOWK 260: EHC_102; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 366: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; ECON 360: OLD; GEOG 152: OLD; ENGL 454: OLD; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CAT 256: OLD, EHC_101, EHC_102, EHC_201; </t>
+CSM 184: OLD, EHC_101; GLAK 262: OLD; ECON 364: EHC_201, EHC_EXT_A; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; </t>
+HIST 256: EHC_201; </t>
         </is>
       </c>
     </row>
@@ -959,40 +991,46 @@
 PERIOD 2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+RS 154: OLD, NB_T3, NB_T1, NB_T5; FREN 262: OLD; LAW 258: EHC_101; </t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: OLD; </t>
+GEOG 354: EHC_102; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; </t>
+CAT 256: OLD, NB_T2, NB_T4, NB_T1; POL 254: OLD; ECON 356: EHC_102; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: EHC_102; GEOG 356: OLD; CSM 184: OLD, EHC_101; RS 154: OLD, NB_T1, NB_T4, NB_T5; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
+GEOG 152: OLD; SOC 458: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: NB_T2; </t>
+ENGL 456: EHC_101; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 364: NB_T1, NB_T2; </t>
+SOC 452: OLD; ENGL 454: OLD; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; ECON 354: OLD; MATH 154: OLD; </t>
+MATH 154: OLD; SOC 456: EHC_101; GEOG 356: OLD; GEOG 360: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -1006,42 +1044,36 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: EHC_101; COMS 152: OLD; ENGL 468: NB_T1; </t>
+HIST 152: OLD, NB_T3, NB_T4; ECON 360: OLD; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 254: OLD, EHC_101, EHC_102, EHC_201; ENGL 152: EHC_201, EHC_EXT_A; </t>
+SOC 456: OLD; ENGL 470: EHC_101; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 458: OLD; ECON 366: OLD; ENGL 456: EHC_101; </t>
+GEOG 256: OLD; GEOG 352: NB_T1; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; GEOG 352: EHC_101; CHIN 102: OLD; </t>
+CHIN 102: EHC_101, EHC_102; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; GEOG 358: EHC_101; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-FREN 262: OLD; </t>
+ENGL 152: EHC_101, EHC_102; SOC 152: OLD; ECON 254: OLD, NB_T4, NB_T1; GEOG 358: OLD; </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1113,37 +1145,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 358: EHC_101; MATH 154: OLD; </t>
+ENGL 458: OLD, EHC_101, EHC_102, EHC_201; ECON 354: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 352: NB_T1; GEOG 354: OLD; SOWK 260: OLD; </t>
+COMS 152: OLD; SOC 454: EHC_101; ENGL 468: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-COMS 152: EHC_101, EHC_102; POL 254: OLD; </t>
+SOWK 260: EHC_102; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 366: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 360: OLD; SOC 152: OLD; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 356: OLD; </t>
+CSM 184: OLD, EHC_101; GLAK 262: OLD; ECON 364: EHC_201, EHC_EXT_A; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; </t>
+HIST 256: EHC_201; </t>
         </is>
       </c>
     </row>
@@ -1154,40 +1186,46 @@
 PERIOD 2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+RS 154: OLD, NB_T3, NB_T1, NB_T5; FREN 262: OLD; LAW 258: EHC_101; </t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CHIN 102: OLD; GEOG 152: OLD; SOC 456: OLD; </t>
+GEOG 354: EHC_102; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 364: OLD; ENGL 454: OLD; </t>
+CAT 256: OLD, NB_T2, NB_T4, NB_T1; POL 254: OLD; ECON 356: EHC_102; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: EHC_101; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; ENGL 470: OLD; </t>
+GEOG 152: OLD; SOC 458: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 360: NB_T1; RS 154: OLD, EHC_101, EHC_201, EHC_102; </t>
+ENGL 456: EHC_101; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; </t>
+SOC 452: OLD; ENGL 454: OLD; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: OLD, EHC_101; SOC 454: OLD; </t>
+MATH 154: OLD; SOC 456: EHC_101; GEOG 356: OLD; GEOG 360: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -1201,407 +1239,35 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; ENGL 456: EHC_102; </t>
+HIST 152: OLD, NB_T3, NB_T4; ECON 360: OLD; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, NB_T4, NB_T2; ENGL 468: OLD; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 354: NB_T1; CAT 256: OLD, EHC_101, EHC_102, EHC_201; </t>
+SOC 456: OLD; ENGL 470: EHC_101; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 152: EHC_101, EHC_102; SOC 458: OLD; </t>
+GEOG 256: OLD; GEOG 352: NB_T1; </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CHIN 102: EHC_101, EHC_102; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 356: NB_T1; ECON 366: EHC_101; LAW 258: OLD; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; GLAK 262: OLD; SOC 452: OLD; </t>
+ENGL 152: EHC_101, EHC_102; SOC 152: OLD; ECON 254: OLD, NB_T4, NB_T1; GEOG 358: OLD; </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 152: OLD; GEOG 256: OLD; </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 454: OLD; GEOG 354: OLD; ECON 356: OLD; </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152: OLD, EHC_101; FREN 262: OLD; ENGL 456: OLD; </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 260: OLD; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 452: OLD; MATH 154: OLD; POL 254: OLD; </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; GEOG 360: EHC_101; ENGL 454: NB_T1; </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CSM 184: OLD, NB_T4; SOC 152: OLD; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: EHC_101; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; ECON 364: OLD; HIST 256: EHC_101; ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; LAW 258: OLD; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 352: OLD; </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 152: EHC_101; RS 154: OLD, EHC_101, EHC_102, EHC_201; ENGL 470: OLD; </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 354: EHC_101; CAT 256: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; GLAK 262: OLD; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 358: OLD; ECON 366: OLD; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 356: OLD; ECON 360: OLD; HIST 152: OLD, NB_T2, NB_T5; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 102: OLD; ENGL 468: NB_T1; </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 152: OLD; GEOG 256: OLD; </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 454: OLD; GEOG 354: OLD; ECON 356: OLD; </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152: OLD, EHC_101; FREN 262: OLD; ENGL 456: OLD; </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 260: OLD; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 452: OLD; MATH 154: OLD; POL 254: OLD; </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; GEOG 360: EHC_101; ENGL 454: NB_T1; </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CSM 184: OLD, NB_T4; SOC 152: OLD; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: EHC_101; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; ECON 364: OLD; HIST 256: EHC_101; ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; LAW 258: OLD; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 352: OLD; </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 152: EHC_101; RS 154: OLD, EHC_101, EHC_102, EHC_201; ENGL 470: OLD; </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 354: EHC_101; CAT 256: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; GLAK 262: OLD; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 358: OLD; ECON 366: OLD; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 356: OLD; ECON 360: OLD; HIST 152: OLD, NB_T2, NB_T5; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 102: OLD; ENGL 468: NB_T1; </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/archives/9.xlsx
+++ b/data/archives/9.xlsx
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -459,38 +459,38 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-Chromosome 3</t>
+Chromosome 2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-Chromosome 4</t>
+Chromosome 1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -566,37 +566,31 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 458: OLD, EHC_101, EHC_102, EHC_201; ECON 354: OLD; </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152: OLD; SOC 454: EHC_101; ENGL 468: OLD; </t>
+CAT 256: OLD; SOC 152: OLD, EHC_201, EHC_101; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: EHC_102; </t>
+SOC 454: OLD; FREN 262: EHC_101; GLAK 262: OLD; ECON 354: NB_T2; ENGL 456: EHC_101; ENGL 468: EHC_201; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 366: OLD; </t>
+SOC 456: OLD; ENGL 152: NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: OLD, EHC_101; GLAK 262: OLD; ECON 364: EHC_201, EHC_EXT_A; </t>
+ECON 254: OLD, NB_T4; LAW 258: OLD; ECON 366: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: EHC_201; </t>
+COMS 152: OLD; HIST 152: EHC_101; ENGL 454: OLD; GEOG 354: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -610,43 +604,25 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, NB_T3, NB_T1, NB_T5; FREN 262: OLD; LAW 258: EHC_101; </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 354: EHC_102; </t>
+GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: OLD, NB_T2, NB_T4, NB_T1; POL 254: OLD; ECON 356: EHC_102; </t>
+GEOG 152: EHC_102, EHC_201, EHC_101; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 152: OLD; SOC 458: OLD; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 456: EHC_101; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 452: OLD; ENGL 454: OLD; </t>
+ECON 364: EHC_101; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; SOC 456: EHC_101; GEOG 356: OLD; GEOG 360: EHC_101; </t>
+GEOG 358: OLD; </t>
         </is>
       </c>
     </row>
@@ -660,31 +636,25 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, NB_T3, NB_T4; ECON 360: OLD; </t>
+HIST 256: EHC_102, EHC_EXT_A, EHC_EXT_B; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; ENGL 470: EHC_101; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; GEOG 352: NB_T1; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 102: EHC_101, EHC_102; </t>
+GEOG 256: OLD, EHC_101, EHC_201; GEOG 356: NB_T1; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: OLD; SOC 458: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 152: EHC_101, EHC_102; SOC 152: OLD; ECON 254: OLD, NB_T4, NB_T1; GEOG 358: OLD; </t>
+SOC 456: OLD; POL 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; MATH 154: OLD, NB_T1, NB_T3, NB_T2, NB_T5, NB_T4; ECON 360: EHC_101; ENGL 470: EHC_101; GEOG 352: NB_R1, NB_R2; </t>
         </is>
       </c>
     </row>
@@ -761,31 +731,31 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CHIN 102: OLD; ECON 354: OLD; SOC 456: OLD; ENGL 454: OLD; </t>
+CAT 256: OLD; SOC 152: OLD, EHC_201, EHC_101; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, EHC_101, EHC_201; SOC 454: OLD; ENGL 456: OLD; </t>
+SOC 454: OLD; FREN 262: EHC_101; GLAK 262: OLD; ECON 354: NB_T2; ENGL 456: EHC_101; ENGL 468: EHC_201; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: OLD; </t>
+SOC 456: OLD; ENGL 152: NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 360: OLD; </t>
+ECON 254: OLD, NB_T4; LAW 258: OLD; ECON 366: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: OLD, EHC_102; RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
+COMS 152: OLD; HIST 152: EHC_101; ENGL 454: OLD; GEOG 354: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -799,43 +769,25 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-POL 254: OLD; COMS 152: OLD, EHC_101; </t>
+GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 468: NB_T1; </t>
+GEOG 152: EHC_102, EHC_201, EHC_101; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: EHC_101; SOWK 260: OLD; GEOG 152: OLD; ECON 366: OLD; GEOG 352: OLD; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 152: EHC_101, EHC_102; MATH 154: OLD; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 360: OLD; SOC 456: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+ECON 364: EHC_101; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 254: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; GLAK 262: OLD; </t>
+GEOG 358: OLD; </t>
         </is>
       </c>
     </row>
@@ -849,31 +801,25 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: EHC_101; GEOG 356: OLD; SOC 458: OLD; ENGL 470: EHC_101; </t>
+HIST 256: EHC_102, EHC_EXT_A, EHC_EXT_B; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 364: OLD; </t>
+GEOG 256: OLD, EHC_101, EHC_201; GEOG 356: NB_T1; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: OLD, EHC_101, EHC_102, EHC_201; SOC 452: OLD; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 356: OLD; </t>
+SOC 452: OLD; SOC 458: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; SOC 152: OLD; GEOG 358: EHC_201; </t>
+SOC 456: OLD; POL 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; MATH 154: OLD, NB_T1, NB_T3, NB_T2, NB_T5, NB_T4; ECON 360: EHC_101; ENGL 470: EHC_101; GEOG 352: NB_R1, NB_R2; </t>
         </is>
       </c>
     </row>
@@ -950,37 +896,31 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 458: OLD, EHC_101, EHC_102, EHC_201; ECON 354: OLD; </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152: OLD; SOC 454: EHC_101; ENGL 468: OLD; </t>
+CAT 256: OLD; SOC 152: OLD, EHC_201, EHC_101; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: EHC_102; </t>
+SOC 454: OLD; FREN 262: EHC_101; GLAK 262: OLD; ECON 354: NB_T2; ENGL 456: EHC_101; ENGL 468: EHC_201; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 366: OLD; </t>
+SOC 456: OLD; ENGL 152: NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: OLD, EHC_101; GLAK 262: OLD; ECON 364: EHC_201, EHC_EXT_A; </t>
+ECON 254: OLD, NB_T4; LAW 258: OLD; ECON 366: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: EHC_201; </t>
+COMS 152: OLD; HIST 152: EHC_101; ENGL 454: OLD; GEOG 354: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -994,43 +934,25 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, NB_T3, NB_T1, NB_T5; FREN 262: OLD; LAW 258: EHC_101; </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 354: EHC_102; </t>
+GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: OLD, NB_T2, NB_T4, NB_T1; POL 254: OLD; ECON 356: EHC_102; </t>
+GEOG 152: EHC_102, EHC_201, EHC_101; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 152: OLD; SOC 458: OLD; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 456: EHC_101; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 452: OLD; ENGL 454: OLD; </t>
+ECON 364: EHC_101; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; SOC 456: EHC_101; GEOG 356: OLD; GEOG 360: EHC_101; </t>
+GEOG 358: OLD; </t>
         </is>
       </c>
     </row>
@@ -1044,31 +966,25 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, NB_T3, NB_T4; ECON 360: OLD; </t>
+HIST 256: EHC_102, EHC_EXT_A, EHC_EXT_B; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; ENGL 470: EHC_101; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; GEOG 352: NB_T1; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 102: EHC_101, EHC_102; </t>
+GEOG 256: OLD, EHC_101, EHC_201; GEOG 356: NB_T1; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: OLD; SOC 458: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 152: EHC_101, EHC_102; SOC 152: OLD; ECON 254: OLD, NB_T4, NB_T1; GEOG 358: OLD; </t>
+SOC 456: OLD; POL 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; MATH 154: OLD, NB_T1, NB_T3, NB_T2, NB_T5, NB_T4; ECON 360: EHC_101; ENGL 470: EHC_101; GEOG 352: NB_R1, NB_R2; </t>
         </is>
       </c>
     </row>
@@ -1145,37 +1061,31 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 458: OLD, EHC_101, EHC_102, EHC_201; ECON 354: OLD; </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152: OLD; SOC 454: EHC_101; ENGL 468: OLD; </t>
+CAT 256: OLD; SOC 152: OLD, EHC_201, EHC_101; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: EHC_102; </t>
+SOC 454: OLD; FREN 262: EHC_101; GLAK 262: OLD; ECON 354: NB_T2; ENGL 456: EHC_101; ENGL 468: EHC_201; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 366: OLD; </t>
+SOC 456: OLD; ENGL 152: NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: OLD, EHC_101; GLAK 262: OLD; ECON 364: EHC_201, EHC_EXT_A; </t>
+ECON 254: OLD, NB_T4; LAW 258: OLD; ECON 366: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: EHC_201; </t>
+COMS 152: OLD; HIST 152: EHC_101; ENGL 454: OLD; GEOG 354: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -1189,43 +1099,25 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, NB_T3, NB_T1, NB_T5; FREN 262: OLD; LAW 258: EHC_101; </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 354: EHC_102; </t>
+GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: OLD, NB_T2, NB_T4, NB_T1; POL 254: OLD; ECON 356: EHC_102; </t>
+GEOG 152: EHC_102, EHC_201, EHC_101; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 152: OLD; SOC 458: OLD; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 456: EHC_101; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 452: OLD; ENGL 454: OLD; </t>
+ECON 364: EHC_101; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; SOC 456: EHC_101; GEOG 356: OLD; GEOG 360: EHC_101; </t>
+GEOG 358: OLD; </t>
         </is>
       </c>
     </row>
@@ -1239,31 +1131,25 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, NB_T3, NB_T4; ECON 360: OLD; </t>
+HIST 256: EHC_102, EHC_EXT_A, EHC_EXT_B; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; ENGL 470: EHC_101; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; GEOG 352: NB_T1; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 102: EHC_101, EHC_102; </t>
+GEOG 256: OLD, EHC_101, EHC_201; GEOG 356: NB_T1; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: OLD; SOC 458: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 152: EHC_101, EHC_102; SOC 152: OLD; ECON 254: OLD, NB_T4, NB_T1; GEOG 358: OLD; </t>
+SOC 456: OLD; POL 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; MATH 154: OLD, NB_T1, NB_T3, NB_T2, NB_T5, NB_T4; ECON 360: EHC_101; ENGL 470: EHC_101; GEOG 352: NB_R1, NB_R2; </t>
         </is>
       </c>
     </row>
